--- a/experiment result/64_0.3_40_zs40_kappa_lp.xlsx
+++ b/experiment result/64_0.3_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03918533383385106</v>
+        <v>0.001273899012055081</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05316153277589758</v>
+        <v>0.00128176544546319</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0537116315380146</v>
+        <v>0.003064585694956148</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03768038803765764</v>
+        <v>0.002841638251100465</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03138170909524853</v>
+        <v>0.001857220097223762</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04118904433960355</v>
+        <v>0.003238033780015021</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04665204771106849</v>
+        <v>0.001245529584766156</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03204696203136036</v>
+        <v>0.004690772202608213</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02638701394274824</v>
+        <v>0.001534368958796589</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04293114339031099</v>
+        <v>0.03088349683390459</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06806608658383692</v>
+        <v>0.0135983764980929</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05618637766220237</v>
+        <v>0.03328079644464027</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06230894151052824</v>
+        <v>0.00134787968973945</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09423698820011682</v>
+        <v>0.006323746603107791</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05032076532685855</v>
+        <v>0.004358301079461355</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0577823512214631</v>
+        <v>0.001324687711605333</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06007077354830948</v>
+        <v>0.006524056222161789</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04509957639330342</v>
+        <v>0.0004647341116764576</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03269375248929823</v>
+        <v>0.002907700575534363</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06479900962631738</v>
+        <v>0.0033653940314292</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04008365737789143</v>
+        <v>0.004135594838968373</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03382260324199098</v>
+        <v>0.00146384047627346</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05814447367739278</v>
+        <v>0.006639926407387177</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02450844272885383</v>
+        <v>0.0006370094246833041</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02055081815902512</v>
+        <v>0.002525685657637947</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04763739766032449</v>
+        <v>0.006588821745570947</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04464417614869075</v>
+        <v>0.002529929126447954</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03096982041848088</v>
+        <v>0.007520483817834374</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03914943636879209</v>
+        <v>0.005945132649349127</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05162218694884306</v>
+        <v>0.002539045920721867</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02988293152039705</v>
+        <v>0.0006734151212030359</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0396555510208159</v>
+        <v>0.0008903017731395592</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07482613104125894</v>
+        <v>0.00407852836956865</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03065689386734882</v>
+        <v>0.0003735813514337369</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0377289245097743</v>
+        <v>0.002770315944407796</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05137059896706514</v>
+        <v>0.004866777350497476</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03540901900291368</v>
+        <v>0.0005088708691457779</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06001042979418932</v>
+        <v>0.001393701892490538</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350318495394373</v>
+        <v>0.003289502002655095</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04945160185378399</v>
+        <v>0.01382611342592452</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06193237451278066</v>
+        <v>0.07427131864803031</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03175270113083132</v>
+        <v>0.007689212452927083</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02318720793463509</v>
+        <v>0.003737620854896696</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03001547509347827</v>
+        <v>0.001941863338221677</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03654558880699314</v>
+        <v>0.002593598281820926</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0616188898882732</v>
+        <v>0.002693008452642592</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06363076365888372</v>
+        <v>0.009958652242274721</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04093234002160033</v>
+        <v>0.001013967684747754</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06567281770945235</v>
+        <v>0.002969379677311702</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05804539014080295</v>
+        <v>0.0003062427721486564</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05722998275691112</v>
+        <v>0.002661992375373221</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04205812808808969</v>
+        <v>0.003090299643919519</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01955937278015273</v>
+        <v>1.353465590359329e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02986183895427146</v>
+        <v>0.0003958469480676974</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05224945906537835</v>
+        <v>0.004566365743884528</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03756143886211859</v>
+        <v>0.003740782903137667</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04592877909169194</v>
+        <v>0.001316360065889435</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0584136818386345</v>
+        <v>0.001453098459625776</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06590683099381318</v>
+        <v>0.007715498443537626</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04073162307407613</v>
+        <v>0.0003731459512546959</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01718816320906709</v>
+        <v>0.0003233699358813474</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03695761889149624</v>
+        <v>0.007233155932845746</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0456148487474015</v>
+        <v>0.0153092696591661</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02733154149311751</v>
+        <v>0.001512745525006298</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0376133776489657</v>
+        <v>0.00380377109048818</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05736733171241709</v>
+        <v>0.004180973823568</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04249217334648068</v>
+        <v>0.00208036435296723</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03677577793787382</v>
+        <v>0.00111856044221381</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02888909431408611</v>
+        <v>0.0002211728279584354</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02761761578094196</v>
+        <v>0.001960674971050004</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03921522978089376</v>
+        <v>0.002115884633939527</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03411067106422912</v>
+        <v>0.0009515012219419724</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.06549860346254233</v>
+        <v>0.002290779820962876</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04187536502780111</v>
+        <v>0.004496301242078187</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03071665163168546</v>
+        <v>0.004493017534392394</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04358248096098268</v>
+        <v>0.03170764834288181</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.04496704560213192</v>
+        <v>0.0002561263611189865</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03006136976150525</v>
+        <v>0.02957821007423007</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03555570125835472</v>
+        <v>0.002980188381942811</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02997405226637651</v>
+        <v>0.001582133134907466</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0275647634677878</v>
+        <v>0.002825171598184591</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07986793656424238</v>
+        <v>0.001683550793206874</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03641047535860005</v>
+        <v>0.003658247942389653</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.06100695698078492</v>
+        <v>0.002614592747184474</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.06013794977416853</v>
+        <v>0.09959254524615127</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05226497515179339</v>
+        <v>0.001639345367942094</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0548785409830451</v>
+        <v>0.005070286254570456</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.05597455317504033</v>
+        <v>0.003194815726461769</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02775406492700246</v>
+        <v>0.001871359185754319</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05181759658886</v>
+        <v>0.001382080086770771</v>
       </c>
     </row>
   </sheetData>
